--- a/biology/Botanique/Olea_tetragonoclada/Olea_tetragonoclada.xlsx
+++ b/biology/Botanique/Olea_tetragonoclada/Olea_tetragonoclada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Olea tetragonoclada L. C. Chia est un végétal appartenant au genre Olea. C'est une espèce qui pousse en Chine (en langue chinoise translittérée : fang zi mu xi lan).
 </t>
@@ -513,14 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Appareil végétatif
-Ce sont des buissons de 1,2 à 6 m de hauteur. Les petites branches, les pédoncules et les pédicelles ont quadrangulaires, pubérulents. Le pétiole mesure 1 à 3 mm, pubescents. Le limbe de la feuille est elliptique à oblong, mesurant 2,5 à 6 cm par 0,7 à 2 cm, coriace et pubérulent. La base est cunéiforme ou obtuse, la marge est entière. L'apex est obtus et parfois rétus. Les nervures primaires sont au nombre de 7 à 8 de chaque côté de la nervure centrale, sombre.
-Appareil reproducteur
-Les panicules floraux sont terminaux ou axillaires, de 0,7 à 2 cm. Les fleurs sont bisexuées. Le pédicelle mesure entre 0 et 2 m. Le calice ne dépasse pas 1 mm, pubescent. La corolle est jaunâtre, de 2 à 2,5 mm. Le tube mesure 1 à 1,5 mm, les lobes ovales de 0,7 à 1 mm.
-Les fruits sont des drupes, pruineuses, ellipsoïdes de 8 à 10 mm par 5 à 8. La floraison a lieu en mai, la fructification en décembre.
-Répartition géographique
-Fourrés, forêts humides et denses, sommets de montagnes calcaires, de 900 à 1000 m.
-Asie tempérée : Chine (Guanxi)</t>
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des buissons de 1,2 à 6 m de hauteur. Les petites branches, les pédoncules et les pédicelles ont quadrangulaires, pubérulents. Le pétiole mesure 1 à 3 mm, pubescents. Le limbe de la feuille est elliptique à oblong, mesurant 2,5 à 6 cm par 0,7 à 2 cm, coriace et pubérulent. La base est cunéiforme ou obtuse, la marge est entière. L'apex est obtus et parfois rétus. Les nervures primaires sont au nombre de 7 à 8 de chaque côté de la nervure centrale, sombre.
+</t>
         </is>
       </c>
     </row>
@@ -545,10 +557,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Taxonomie</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les panicules floraux sont terminaux ou axillaires, de 0,7 à 2 cm. Les fleurs sont bisexuées. Le pédicelle mesure entre 0 et 2 m. Le calice ne dépasse pas 1 mm, pubescent. La corolle est jaunâtre, de 2 à 2,5 mm. Le tube mesure 1 à 1,5 mm, les lobes ovales de 0,7 à 1 mm.
+Les fruits sont des drupes, pruineuses, ellipsoïdes de 8 à 10 mm par 5 à 8. La floraison a lieu en mai, la fructification en décembre.
+</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -571,13 +595,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Utilisations</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arbuste décoratif. Cette espèce intéresse les créateurs de bonsaïs[1].
-</t>
+          <t>Répartition géographique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fourrés, forêts humides et denses, sommets de montagnes calcaires, de 900 à 1000 m.
+Asie tempérée : Chine (Guanxi)</t>
         </is>
       </c>
     </row>
@@ -602,10 +632,73 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Olea_tetragonoclada</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_tetragonoclada</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbuste décoratif. Cette espèce intéresse les créateurs de bonsaïs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Olea_tetragonoclada</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_tetragonoclada</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
